--- a/results/tutorials/microGalaxy-tools.xlsx
+++ b/results/tutorials/microGalaxy-tools.xlsx
@@ -405,7 +405,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bedtools_complementbed</t>
+          <t>tp_sort_header_tool</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -425,12 +425,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>bedtools</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H2">
@@ -443,7 +443,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tp_cat</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H3">
@@ -481,7 +481,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tp_replace_in_column</t>
+          <t>mergeCols1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>merge_cols</t>
         </is>
       </c>
       <c r="H4">
@@ -519,7 +519,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tp_replace_in_line</t>
+          <t>fasta_compute_length</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,12 +539,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>fasta_compute_length</t>
         </is>
       </c>
       <c r="H5">
@@ -557,7 +557,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>tp_replace_in_line</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H6">
@@ -595,7 +595,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tp_sort_header_tool</t>
+          <t>bedtools_complementbed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>bedtools</t>
         </is>
       </c>
       <c r="H7">
@@ -633,7 +633,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>circos_aln_to_links</t>
+          <t>tp_replace_in_column</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>circos</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H8">
@@ -671,7 +671,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fasta_filter_by_length</t>
+          <t>tp_cat</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>fasta_filter_by_length</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H9">
@@ -709,7 +709,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bedtools_sortbed</t>
+          <t>tp_grep_tool</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>bedtools</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H10">
@@ -747,7 +747,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>addValue</t>
+          <t>lastz_wrapper_2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>add_value</t>
+          <t>lastz</t>
         </is>
       </c>
       <c r="H11">
@@ -785,7 +785,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tp_grep_tool</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H12">
@@ -823,7 +823,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tp_sed_tool</t>
+          <t>addValue</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>add_value</t>
         </is>
       </c>
       <c r="H13">
@@ -861,7 +861,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>circos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>circos</t>
         </is>
       </c>
       <c r="H14">
@@ -899,7 +899,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>collapse_dataset</t>
+          <t>tp_sed_tool</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -919,12 +919,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>collapse_collections</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H15">
@@ -937,7 +937,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lastz_wrapper_2</t>
+          <t>bedtools_intersectbed</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>lastz</t>
+          <t>bedtools</t>
         </is>
       </c>
       <c r="H16">
@@ -975,7 +975,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>circos</t>
+          <t>collapse_dataset</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>circos</t>
+          <t>collapse_collections</t>
         </is>
       </c>
       <c r="H17">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mergeCols1</t>
+          <t>circos_aln_to_links</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1033,12 +1033,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>merge_cols</t>
+          <t>circos</t>
         </is>
       </c>
       <c r="H18">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>fasta_compute_length</t>
+          <t>fasta_filter_by_length</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>fasta_compute_length</t>
+          <t>fasta_filter_by_length</t>
         </is>
       </c>
       <c r="H19">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bedtools_intersectbed</t>
+          <t>bedtools_sortbed</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>bandage_info</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequence assembly validation, Sequence composition calculation, Sequence assembly visualisation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Sequence contamination filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H21">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>shovill</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequence assembly validation, Sequence composition calculation, Sequence assembly visualisation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Sequence contamination filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>shovill</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H22">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequence assembly validation, Sequence composition calculation, Sequence assembly visualisation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Sequence contamination filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H23">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bandage_info</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequence assembly validation, Sequence composition calculation, Sequence assembly visualisation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Sequence contamination filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H24">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequence assembly validation, Sequence composition calculation, Sequence assembly visualisation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Sequence contamination filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H25">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>shovill</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequence assembly validation, Sequence composition calculation, Sequence assembly visualisation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Sequence contamination filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>shovill</t>
         </is>
       </c>
       <c r="H26">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>bandage_info</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H27">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>collection_column_join</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>collection_column_join</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H28">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bg_uniq</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="H29">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tp_cat</t>
+          <t>megahit_contig2fastg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>megahit_contig2fastg</t>
         </is>
       </c>
       <c r="H30">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>metaspades</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>spades</t>
         </is>
       </c>
       <c r="H31">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H32">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>tp_cat</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H33">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>megahit_contig2fastg</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>megahit_contig2fastg</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H34">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bandage_info</t>
+          <t>bg_uniq</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="H35">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H36">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>metaspades</t>
+          <t>coverm_contig</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>spades</t>
+          <t>coverm</t>
         </is>
       </c>
       <c r="H38">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bamtools</t>
+          <t>collection_column_join</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>bamtools</t>
+          <t>collection_column_join</t>
         </is>
       </c>
       <c r="H39">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>coverm_contig</t>
+          <t>bamtools</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>coverm</t>
+          <t>bamtools</t>
         </is>
       </c>
       <c r="H40">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="H41">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>polypolish</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1945,12 +1945,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>polypolish</t>
         </is>
       </c>
       <c r="H42">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>polypolish</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>polypolish</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H43">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H44">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>filtlong</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>filtlong</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H45">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>flye</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2097,12 +2097,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>flye</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H46">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>filtlong</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>filtlong</t>
         </is>
       </c>
       <c r="H47">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="H48">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>porechop</t>
+          <t>flye</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>porechop</t>
+          <t>flye</t>
         </is>
       </c>
       <c r="H49">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>bwa_mem2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2249,12 +2249,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>bwa_mem2</t>
         </is>
       </c>
       <c r="H50">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bwa_mem2</t>
+          <t>porechop</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Sequencing error detection, De-novo assembly, Mapping assembly, Box-Whisker plot plotting, Filtering, Sequence assembly validation, Sequence alignment, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Cross-assembly, Sequence contamination filtering</t>
+          <t>Visualisation, Filtering, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Cross-assembly, Statistical calculation, Sequencing quality control, Sequence composition calculation, Sequence contamination filtering, Sequencing error detection, Read mapping, Mapping assembly, Sequence alignment, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>bwa_mem2</t>
+          <t>porechop</t>
         </is>
       </c>
       <c r="H51">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>unicycler</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Validation, Sequence assembly validation, Genome annotation, Sequence composition calculation, Aggregation, Gene prediction, Coding region prediction</t>
+          <t>Visualisation, Validation, Genome assembly, Genome annotation, Sequence assembly validation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Coding region prediction, Gene prediction, Aggregation</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>unicycler</t>
         </is>
       </c>
       <c r="H52">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>prokka</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Validation, Sequence assembly validation, Genome annotation, Sequence composition calculation, Aggregation, Gene prediction, Coding region prediction</t>
+          <t>Visualisation, Validation, Genome assembly, Genome annotation, Sequence assembly validation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Coding region prediction, Gene prediction, Aggregation</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>prokka</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H53">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Validation, Sequence assembly validation, Genome annotation, Sequence composition calculation, Aggregation, Gene prediction, Coding region prediction</t>
+          <t>Visualisation, Validation, Genome assembly, Genome annotation, Sequence assembly validation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Coding region prediction, Gene prediction, Aggregation</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Validation, Sequence assembly validation, Genome annotation, Sequence composition calculation, Aggregation, Gene prediction, Coding region prediction</t>
+          <t>Visualisation, Validation, Genome assembly, Genome annotation, Sequence assembly validation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Coding region prediction, Gene prediction, Aggregation</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H55">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>unicycler</t>
+          <t>prokka</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2477,12 +2477,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Visualisation, Statistical calculation, Sequencing quality control, Genome assembly, Validation, Sequence assembly validation, Genome annotation, Sequence composition calculation, Aggregation, Gene prediction, Coding region prediction</t>
+          <t>Visualisation, Validation, Genome assembly, Genome annotation, Sequence assembly validation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Coding region prediction, Gene prediction, Aggregation</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>unicycler</t>
+          <t>prokka</t>
         </is>
       </c>
       <c r="H56">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Expression analysis, Statistical calculation, Cross-assembly, Taxonomic classification</t>
+          <t>Taxonomic classification, Expression analysis, Cross-assembly, Statistical calculation</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Expression analysis, Statistical calculation, Cross-assembly, Taxonomic classification</t>
+          <t>Taxonomic classification, Expression analysis, Cross-assembly, Statistical calculation</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Expression analysis, Statistical calculation, Cross-assembly, Taxonomic classification</t>
+          <t>Taxonomic classification, Expression analysis, Cross-assembly, Statistical calculation</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sequence analysis, Phylogenetic tree analysis</t>
+          <t>Phylogenetic tree analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>tp_easyjoin_tool</t>
+          <t>tp_sed_tool</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tb_profiler_profile</t>
+          <t>collapse_dataset</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2705,12 +2705,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>tbprofiler</t>
+          <t>collapse_collections</t>
         </is>
       </c>
       <c r="H62">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tp_cat</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2743,12 +2743,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="H63">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>snp_dists</t>
+          <t>tp_cat</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>snp_dists</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H64">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>addName</t>
+          <t>tp_easyjoin_tool</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>add_input_name_as_column</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H65">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>tp_replace_in_line</t>
+          <t>addName</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>add_input_name_as_column</t>
         </is>
       </c>
       <c r="H66">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>trimmomatic</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2895,12 +2895,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>trimmomatic</t>
         </is>
       </c>
       <c r="H67">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>collapse_dataset</t>
+          <t>snp_dists</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>collapse_collections</t>
+          <t>snp_dists</t>
         </is>
       </c>
       <c r="H68">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>trimmomatic</t>
+          <t>snp_sites</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>trimmomatic</t>
+          <t>snp_sites</t>
         </is>
       </c>
       <c r="H69">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tp_sed_tool</t>
+          <t>tb_profiler_profile</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>tbprofiler</t>
         </is>
       </c>
       <c r="H71">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>snp_sites</t>
+          <t>tp_replace_in_line</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>snp_sites</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H72">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>prokka</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Coding region prediction, Genome annotation, Genome visualisation, Gene prediction</t>
+          <t>Genome annotation, Genome visualisation, Coding region prediction, Gene prediction</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>prokka</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H74">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>prokka</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3199,12 +3199,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Coding region prediction, Genome annotation, Genome visualisation, Gene prediction</t>
+          <t>Genome annotation, Genome visualisation, Coding region prediction, Gene prediction</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>prokka</t>
         </is>
       </c>
       <c r="H75">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>tbl2gff3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>tbl2gff3</t>
         </is>
       </c>
       <c r="H78">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H79">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="H80">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tbl2gff3</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3427,12 +3427,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>tbl2gff3</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="H81">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>tp_replace_in_column</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H82">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tp_replace_in_column</t>
+          <t>plasmidfinder</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3503,12 +3503,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>plasmidfinder</t>
         </is>
       </c>
       <c r="H83">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>isescan</t>
+          <t>tp_tail_tool</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3541,12 +3541,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ISEScan</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H84">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>isescan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>ISEScan</t>
         </is>
       </c>
       <c r="H85">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>plasmidfinder</t>
+          <t>integron_finder</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>plasmidfinder</t>
+          <t>integronfinder</t>
         </is>
       </c>
       <c r="H87">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>integron_finder</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3693,12 +3693,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>integronfinder</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H88">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tp_tail_tool</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3731,12 +3731,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="H89">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bg_diamond_makedb</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3769,12 +3769,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H90">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bg_diamond_view</t>
+          <t>orfipy</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>orfipy</t>
         </is>
       </c>
       <c r="H91">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>regexColumn1</t>
+          <t>gops_intersect_1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>regex_find_replace</t>
+          <t>intersect</t>
         </is>
       </c>
       <c r="H92">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tab2fasta</t>
+          <t>collapse_dataset</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>tabular_to_fasta</t>
+          <t>collapse_collections</t>
         </is>
       </c>
       <c r="H93">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rbc_mafft</t>
+          <t>Add_a_column1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>mafft</t>
+          <t>column_maker</t>
         </is>
       </c>
       <c r="H94">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tp_split_on_column</t>
+          <t>tab2fasta</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>split_file_on_column</t>
+          <t>tabular_to_fasta</t>
         </is>
       </c>
       <c r="H95">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Add_a_column1</t>
+          <t>tp_split_on_column</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3997,12 +3997,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>column_maker</t>
+          <t>split_file_on_column</t>
         </is>
       </c>
       <c r="H96">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>orfipy</t>
+          <t>bg_diamond</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>orfipy</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="H97">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bg_diamond</t>
+          <t>regexColumn1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>regex_find_replace</t>
         </is>
       </c>
       <c r="H98">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>gops_intersect_1</t>
+          <t>rbc_mafft</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>intersect</t>
+          <t>mafft</t>
         </is>
       </c>
       <c r="H99">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>rapidnj</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4149,12 +4149,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>rapidnj</t>
         </is>
       </c>
       <c r="H100">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rapidnj</t>
+          <t>bg_diamond_view</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>rapidnj</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="H101">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>collapse_dataset</t>
+          <t>bg_diamond_makedb</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Multiple sequence alignment, Database search, Phylogenetic tree generation, Coding region prediction, Sequence alignment analysis, De-novo assembly, Transcriptome assembly</t>
+          <t>Sequence alignment analysis, Coding region prediction, Multiple sequence alignment, Phylogenetic tree generation, De-novo assembly, Transcriptome assembly, Database search</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>collapse_collections</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="H102">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>tp_easyjoin_tool</t>
+          <t>tp_sort_header_tool</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Transposon prediction, Read pre-processing, Sequence trimming, Primer removal</t>
+          <t>Transposon prediction, Primer removal, Read pre-processing, Sequence trimming</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bg_find_subsequences</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Transposon prediction, Read pre-processing, Sequence trimming, Primer removal</t>
+          <t>Transposon prediction, Primer removal, Read pre-processing, Sequence trimming</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>find_subsequences</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H104">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>bg_find_subsequences</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4339,12 +4339,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Transposon prediction, Read pre-processing, Sequence trimming, Primer removal</t>
+          <t>Transposon prediction, Primer removal, Read pre-processing, Sequence trimming</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>find_subsequences</t>
         </is>
       </c>
       <c r="H105">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>tp_sort_header_tool</t>
+          <t>Add_a_column1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4377,12 +4377,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Transposon prediction, Read pre-processing, Sequence trimming, Primer removal</t>
+          <t>Transposon prediction, Primer removal, Read pre-processing, Sequence trimming</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>column_maker</t>
         </is>
       </c>
       <c r="H106">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Add_a_column1</t>
+          <t>tp_easyjoin_tool</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4415,12 +4415,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Transposon prediction, Read pre-processing, Sequence trimming, Primer removal</t>
+          <t>Transposon prediction, Primer removal, Read pre-processing, Sequence trimming</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>column_maker</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H107">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Transposon prediction, Read pre-processing, Sequence trimming, Primer removal</t>
+          <t>Transposon prediction, Primer removal, Read pre-processing, Sequence trimming</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H108">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Transposon prediction, Read pre-processing, Sequence trimming, Primer removal</t>
+          <t>Transposon prediction, Primer removal, Read pre-processing, Sequence trimming</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>prokka</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4529,12 +4529,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Coding region prediction, Genome annotation, Genome visualisation, Gene prediction</t>
+          <t>Genome annotation, Genome visualisation, Coding region prediction, Gene prediction</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>prokka</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H110">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>prokka</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4567,12 +4567,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Coding region prediction, Genome annotation, Genome visualisation, Gene prediction</t>
+          <t>Genome annotation, Genome visualisation, Coding region prediction, Gene prediction</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>prokka</t>
         </is>
       </c>
       <c r="H111">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bedtools_complementbed</t>
+          <t>tp_sort_header_tool</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4605,12 +4605,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>bedtools</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H112">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tp_cat</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4643,12 +4643,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H113">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>tp_replace_in_column</t>
+          <t>mergeCols1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>merge_cols</t>
         </is>
       </c>
       <c r="H114">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>tp_replace_in_line</t>
+          <t>fasta_compute_length</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4719,12 +4719,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>fasta_compute_length</t>
         </is>
       </c>
       <c r="H115">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>tp_replace_in_line</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4757,12 +4757,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H116">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>tp_sort_header_tool</t>
+          <t>bedtools_complementbed</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>bedtools</t>
         </is>
       </c>
       <c r="H117">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>circos_aln_to_links</t>
+          <t>tp_replace_in_column</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4833,12 +4833,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>circos</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H118">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>fasta_filter_by_length</t>
+          <t>tp_cat</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>fasta_filter_by_length</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H119">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bedtools_sortbed</t>
+          <t>tp_grep_tool</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4909,12 +4909,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>bedtools</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H120">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>addValue</t>
+          <t>lastz_wrapper_2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4947,12 +4947,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>add_value</t>
+          <t>lastz</t>
         </is>
       </c>
       <c r="H121">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>tp_grep_tool</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4985,12 +4985,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H122">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>tp_sed_tool</t>
+          <t>addValue</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5023,12 +5023,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>add_value</t>
         </is>
       </c>
       <c r="H123">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>circos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>circos</t>
         </is>
       </c>
       <c r="H124">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>collapse_dataset</t>
+          <t>tp_sed_tool</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>collapse_collections</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H125">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>lastz_wrapper_2</t>
+          <t>bedtools_intersectbed</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>lastz</t>
+          <t>bedtools</t>
         </is>
       </c>
       <c r="H126">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>circos</t>
+          <t>collapse_dataset</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5175,12 +5175,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>circos</t>
+          <t>collapse_collections</t>
         </is>
       </c>
       <c r="H127">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>mergeCols1</t>
+          <t>circos_aln_to_links</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5213,12 +5213,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>merge_cols</t>
+          <t>circos</t>
         </is>
       </c>
       <c r="H128">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>fasta_compute_length</t>
+          <t>fasta_filter_by_length</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>fasta_compute_length</t>
+          <t>fasta_filter_by_length</t>
         </is>
       </c>
       <c r="H129">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>bedtools_intersectbed</t>
+          <t>bedtools_sortbed</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Read mapping, Mapping, Genome visualisation, Sequence alignment, Sequence visualisation</t>
+          <t>Sequence visualisation, Read mapping, Mapping, Sequence alignment, Genome visualisation</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Genome visualisation, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Genome visualisation, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H131">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Genome visualisation, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Genome visualisation, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="H132">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>tbl2gff3</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5479,12 +5479,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>tbl2gff3</t>
         </is>
       </c>
       <c r="H135">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5517,12 +5517,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H136">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="H137">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>tbl2gff3</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>tbl2gff3</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="H138">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>tp_replace_in_column</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5631,12 +5631,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H139">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>tp_replace_in_column</t>
+          <t>plasmidfinder</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>plasmidfinder</t>
         </is>
       </c>
       <c r="H140">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>isescan</t>
+          <t>tp_tail_tool</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5707,12 +5707,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>ISEScan</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H141">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>isescan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5745,12 +5745,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>ISEScan</t>
         </is>
       </c>
       <c r="H142">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>plasmidfinder</t>
+          <t>integron_finder</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>plasmidfinder</t>
+          <t>integronfinder</t>
         </is>
       </c>
       <c r="H144">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>integron_finder</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>integronfinder</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H145">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>tp_tail_tool</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5897,12 +5897,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sequence motif recognition, Nucleic acid feature detection, Structural variation detection, Genome assembly, Genome annotation, Protein feature detection, Genome visualisation, Scaffolding, Multilocus sequence typing</t>
+          <t>Structural variation detection, Protein feature detection, Genome assembly, Genome annotation, Sequence motif recognition, Scaffolding, Nucleic acid feature detection, Multilocus sequence typing, Genome visualisation</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="H146">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>mothur_make_biom</t>
+          <t>mothur_filter_seqs</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>mothur_cluster_split</t>
+          <t>mothur_make_group</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>mothur_merge_files</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6011,12 +6011,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H149">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>mothur_make_group</t>
+          <t>mothur_screen_seqs</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>mothur_filter_seqs</t>
+          <t>mothur_classify_otu</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>mothur_screen_seqs</t>
+          <t>mothur_align_seqs</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>mothur_classify_otu</t>
+          <t>mothur_summary_seqs</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>mothur_count_seqs</t>
+          <t>mothur_unique_seqs</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>mothur_count_seqs</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6239,12 +6239,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H155">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>mothur_classify_seqs</t>
+          <t>mothur_cluster_split</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>mothur_align_seqs</t>
+          <t>mothur_make_biom</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>mothur_make_shared</t>
+          <t>mothur_classify_seqs</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>mothur_unique_seqs</t>
+          <t>mothur_make_shared</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mothur_summary_seqs</t>
+          <t>mothur_merge_files</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Taxonomic classification, Sequence read processing, DNA barcoding</t>
+          <t>Phylogenetic analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6505,12 +6505,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H162">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>humann_regroup_table</t>
+          <t>humann_unpack_pathways</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>bg_sortmerna</t>
+          <t>humann_rename_table</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>sortmerna</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H165">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H166">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>humann_unpack_pathways</t>
+          <t>humann_split_stratified_table</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>fastq_paired_end_interlacer</t>
+          <t>bg_sortmerna</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6733,12 +6733,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>fastq_paired_end_interlacer</t>
+          <t>sortmerna</t>
         </is>
       </c>
       <c r="H168">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>graphlan_annotate</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6809,12 +6809,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="H170">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>export2graphlan</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>export2graphlan</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H171">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>tp_find_and_replace</t>
+          <t>fastq_paired_end_interlacer</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6923,12 +6923,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>fastq_paired_end_interlacer</t>
         </is>
       </c>
       <c r="H173">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6961,12 +6961,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="H174">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>humann_rename_table</t>
+          <t>export2graphlan</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6999,12 +6999,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>export2graphlan</t>
         </is>
       </c>
       <c r="H175">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7037,12 +7037,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H176">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>graphlan_annotate</t>
+          <t>humann_regroup_table</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7075,12 +7075,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H177">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>humann_split_stratified_table</t>
+          <t>tp_find_and_replace</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7113,12 +7113,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H178">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7151,12 +7151,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H179">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>tp_cut_tool</t>
+          <t>samtools_depth</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7189,12 +7189,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>samtools_depth</t>
         </is>
       </c>
       <c r="H180">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>tp_replace_in_column</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7227,12 +7227,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H181">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>flye</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7265,12 +7265,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>flye</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H182">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Add_a_column1</t>
+          <t>fasta_merge_files_and_filter_unique_sequences</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7303,12 +7303,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>column_maker</t>
+          <t>fasta_merge_files_and_filter_unique_sequences</t>
         </is>
       </c>
       <c r="H183">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>tp_sorted_uniq</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7341,12 +7341,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H184">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>minimap2</t>
+          <t>split_file_to_collection</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7379,12 +7379,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>minimap2</t>
+          <t>split_file_to_collection</t>
         </is>
       </c>
       <c r="H185">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7417,12 +7417,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="H186">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>fasta_merge_files_and_filter_unique_sequences</t>
+          <t>add_line_to_file</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7455,12 +7455,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>fasta_merge_files_and_filter_unique_sequences</t>
+          <t>add_line_to_file</t>
         </is>
       </c>
       <c r="H187">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>tab2fasta</t>
+          <t>tp_head_tool</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7493,12 +7493,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>tabular_to_fasta</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H188">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>add_line_to_file</t>
+          <t>collection_element_identifiers</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7531,12 +7531,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>add_line_to_file</t>
+          <t>collection_element_identifiers</t>
         </is>
       </c>
       <c r="H189">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Remove beginning1</t>
+          <t>clustalw</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>remove_beginning</t>
+          <t>clustalw</t>
         </is>
       </c>
       <c r="H190">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>porechop</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7607,12 +7607,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>porechop</t>
         </is>
       </c>
       <c r="H191">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>snpSift_extractFields</t>
+          <t>mlst</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7645,12 +7645,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>snpsift</t>
+          <t>mlst</t>
         </is>
       </c>
       <c r="H192">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>abricate</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7683,12 +7683,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>abricate</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H193">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>compose_text_param</t>
+          <t>snpSift_extractFields</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7721,12 +7721,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>compose_text_param</t>
+          <t>snpsift</t>
         </is>
       </c>
       <c r="H194">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>bedtools_getfastabed</t>
+          <t>tp_replace_in_column</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7759,12 +7759,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>bedtools</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H195">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>minimap2</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7797,12 +7797,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>minimap2</t>
         </is>
       </c>
       <c r="H196">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7835,12 +7835,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H197">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>clair3</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7873,12 +7873,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>clair3</t>
         </is>
       </c>
       <c r="H198">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>collapse_dataset</t>
+          <t>Add_a_column1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7911,12 +7911,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>collapse_collections</t>
+          <t>column_maker</t>
         </is>
       </c>
       <c r="H199">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>collection_column_join</t>
+          <t>bedtools_getfastabed</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7949,12 +7949,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>collection_column_join</t>
+          <t>bedtools</t>
         </is>
       </c>
       <c r="H200">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>tp_multijoin_tool</t>
+          <t>table_compute</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7987,12 +7987,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>table_compute</t>
         </is>
       </c>
       <c r="H201">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>tp_split_on_column</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8025,12 +8025,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>split_file_on_column</t>
         </is>
       </c>
       <c r="H202">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>tp_split_on_column</t>
+          <t>regexColumn1</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8063,12 +8063,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>split_file_on_column</t>
+          <t>regex_find_replace</t>
         </is>
       </c>
       <c r="H203">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>regex1</t>
+          <t>tp_cut_tool</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8101,12 +8101,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>regex_find_replace</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H204">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>clustalw</t>
+          <t>fasttree</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8139,12 +8139,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>clustalw</t>
+          <t>fasttree</t>
         </is>
       </c>
       <c r="H205">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>collection_column_join</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8177,12 +8177,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>collection_column_join</t>
         </is>
       </c>
       <c r="H206">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>krakentools_extract_kraken_reads</t>
+          <t>tp_sorted_uniq</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8215,12 +8215,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>krakentools</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H207">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>snpSift_filter</t>
+          <t>compose_text_param</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>snpsift</t>
+          <t>compose_text_param</t>
         </is>
       </c>
       <c r="H208">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>mlst</t>
+          <t>krakentools_extract_kraken_reads</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>mlst</t>
+          <t>krakentools</t>
         </is>
       </c>
       <c r="H209">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>samtools_depth</t>
+          <t>fasta2tab</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8329,12 +8329,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>samtools_depth</t>
+          <t>fasta_to_tabular</t>
         </is>
       </c>
       <c r="H210">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>tp_head_tool</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8367,12 +8367,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H211">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>tp_find_and_replace</t>
+          <t>tab2fasta</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8405,12 +8405,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>tabular_to_fasta</t>
         </is>
       </c>
       <c r="H212">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>fasttree</t>
+          <t>krakentools_kreport2krona</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8443,12 +8443,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>fasttree</t>
+          <t>krakentools</t>
         </is>
       </c>
       <c r="H213">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>table_compute</t>
+          <t>Remove beginning1</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8481,12 +8481,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>table_compute</t>
+          <t>remove_beginning</t>
         </is>
       </c>
       <c r="H214">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>flye</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8519,12 +8519,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>flye</t>
         </is>
       </c>
       <c r="H215">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>regexColumn1</t>
+          <t>abricate</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8557,12 +8557,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>regex_find_replace</t>
+          <t>abricate</t>
         </is>
       </c>
       <c r="H216">
@@ -8575,7 +8575,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>collection_element_identifiers</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8595,12 +8595,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>collection_element_identifiers</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H217">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>clair3</t>
+          <t>snpSift_filter</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8671,12 +8671,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>clair3</t>
+          <t>snpsift</t>
         </is>
       </c>
       <c r="H219">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>split_file_to_collection</t>
+          <t>collapse_dataset</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8709,12 +8709,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>split_file_to_collection</t>
+          <t>collapse_collections</t>
         </is>
       </c>
       <c r="H220">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>fasta2tab</t>
+          <t>tp_multijoin_tool</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8747,12 +8747,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>fasta_to_tabular</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H221">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>porechop</t>
+          <t>tp_find_and_replace</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8785,12 +8785,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>porechop</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H222">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>krakentools_kreport2krona</t>
+          <t>regex1</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8823,12 +8823,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (from molecular sequences), Multiple sequence alignment, Visualisation, Variant calling, Data handling, Sequencing quality control, Sequence alignment analysis, Pairwise sequence alignment, De-novo assembly, Validation, Box-Whisker plot plotting, Mapping, Antimicrobial resistance prediction, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Sequence assembly, Scatter plot plotting, Statistical calculation, Phylogenetic tree reconstruction, Phylogenetic tree generation, Genome assembly, Base-calling, Mapping assembly, Taxonomic classification, Aggregation, Sequence assembly visualisation, Sequence composition calculation, Phylogenetic tree analysis, Cross-assembly, Sequence contamination filtering</t>
+          <t>Validation, Phylogenetic tree generation, Sequence assembly visualisation, Cross-assembly, Sequencing quality control, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Data handling, Sequence composition calculation, Sequence contamination filtering, Antimicrobial resistance prediction, Mapping, Multilocus sequence typing, Sequence assembly, De-novo assembly, Phylogenetic tree analysis, Visualisation, Multiple sequence alignment, Pairwise sequence alignment, Base-calling, Genome assembly, Statistical calculation, Variant calling, Taxonomic classification, Sequence alignment analysis, Phylogenetic tree generation (from molecular sequences), Aggregation, Mapping assembly, Phylogenetic tree reconstruction, Scatter plot plotting, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>krakentools</t>
+          <t>regex_find_replace</t>
         </is>
       </c>
       <c r="H223">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8861,12 +8861,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H224">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>humann_regroup_table</t>
+          <t>humann_unpack_pathways</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>bg_sortmerna</t>
+          <t>humann_rename_table</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8975,12 +8975,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>sortmerna</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H227">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9013,12 +9013,12 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H228">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>humann_unpack_pathways</t>
+          <t>humann_split_stratified_table</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>fastq_paired_end_interlacer</t>
+          <t>bg_sortmerna</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9089,12 +9089,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>fastq_paired_end_interlacer</t>
+          <t>sortmerna</t>
         </is>
       </c>
       <c r="H230">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>graphlan_annotate</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9165,12 +9165,12 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="H232">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>export2graphlan</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9203,12 +9203,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>export2graphlan</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H233">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>tp_find_and_replace</t>
+          <t>fastq_paired_end_interlacer</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9279,12 +9279,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>fastq_paired_end_interlacer</t>
         </is>
       </c>
       <c r="H235">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9317,12 +9317,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="H236">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>humann_rename_table</t>
+          <t>export2graphlan</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9355,12 +9355,12 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>export2graphlan</t>
         </is>
       </c>
       <c r="H237">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9393,12 +9393,12 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H238">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>graphlan_annotate</t>
+          <t>humann_regroup_table</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9431,12 +9431,12 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H239">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>humann_split_stratified_table</t>
+          <t>tp_find_and_replace</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9469,12 +9469,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H240">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9507,12 +9507,12 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Visualisation, Phylogenetic analysis, Sequencing quality control, Read pre-processing, Phylogenetic inference, Sequence alignment analysis, Sequence similarity search, Validation, Species frequency estimation, Phylogenetic tree editing, Nucleic acid sequence analysis, Statistical calculation, Primer removal, Taxonomic classification, Phylogenetic tree visualisation, Conversion, Sequence composition calculation, Phylogenetic tree analysis, Sequence comparison, Sequence trimming</t>
+          <t>Phylogenetic tree editing, Validation, Conversion, Sequencing quality control, Sequence composition calculation, Phylogenetic inference, Sequence trimming, Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence comparison, Statistical calculation, Phylogenetic tree visualisation, Sequence similarity search, Taxonomic classification, Species frequency estimation, Sequence alignment analysis, Primer removal, Nucleic acid sequence analysis, Read pre-processing</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H241">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>metaphlan</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9545,12 +9545,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Visualisation, Nucleic acid sequence analysis, Aggregation, Statistical calculation, Phylogenetic tree analysis, Taxonomic classification</t>
+          <t>Phylogenetic tree analysis, Aggregation, Visualisation, Taxonomic classification, Nucleic acid sequence analysis, Statistical calculation</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>metaphlan</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H242">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Visualisation, Nucleic acid sequence analysis, Aggregation, Statistical calculation, Phylogenetic tree analysis, Taxonomic classification</t>
+          <t>Phylogenetic tree analysis, Aggregation, Visualisation, Taxonomic classification, Nucleic acid sequence analysis, Statistical calculation</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>est_abundance</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9621,12 +9621,12 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Visualisation, Nucleic acid sequence analysis, Aggregation, Statistical calculation, Phylogenetic tree analysis, Taxonomic classification</t>
+          <t>Phylogenetic tree analysis, Aggregation, Visualisation, Taxonomic classification, Nucleic acid sequence analysis, Statistical calculation</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>bracken</t>
         </is>
       </c>
       <c r="H244">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>est_abundance</t>
+          <t>metaphlan</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9659,12 +9659,12 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Visualisation, Nucleic acid sequence analysis, Aggregation, Statistical calculation, Phylogenetic tree analysis, Taxonomic classification</t>
+          <t>Phylogenetic tree analysis, Aggregation, Visualisation, Taxonomic classification, Nucleic acid sequence analysis, Statistical calculation</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>bracken</t>
+          <t>metaphlan</t>
         </is>
       </c>
       <c r="H245">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>krakentools_kreport2krona</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9697,12 +9697,12 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Visualisation, Nucleic acid sequence analysis, Aggregation, Statistical calculation, Phylogenetic tree analysis, Taxonomic classification</t>
+          <t>Phylogenetic tree analysis, Aggregation, Visualisation, Taxonomic classification, Nucleic acid sequence analysis, Statistical calculation</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>krakentools</t>
         </is>
       </c>
       <c r="H246">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>krakentools_kreport2krona</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9735,12 +9735,12 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Visualisation, Nucleic acid sequence analysis, Aggregation, Statistical calculation, Phylogenetic tree analysis, Taxonomic classification</t>
+          <t>Phylogenetic tree analysis, Aggregation, Visualisation, Taxonomic classification, Nucleic acid sequence analysis, Statistical calculation</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>krakentools</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H247">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>bandage_info</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9773,12 +9773,12 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H248">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>collection_column_join</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9811,12 +9811,12 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>collection_column_join</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H249">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>bg_uniq</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9849,12 +9849,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="H250">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>tp_cat</t>
+          <t>megahit_contig2fastg</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9887,12 +9887,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>megahit_contig2fastg</t>
         </is>
       </c>
       <c r="H251">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>metaspades</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -9925,12 +9925,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>spades</t>
         </is>
       </c>
       <c r="H252">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9963,12 +9963,12 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H253">
@@ -9981,7 +9981,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>tp_cat</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10001,12 +10001,12 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H254">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>megahit_contig2fastg</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10039,12 +10039,12 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>megahit_contig2fastg</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H255">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>bandage_info</t>
+          <t>bg_uniq</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="H256">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H257">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>metaspades</t>
+          <t>coverm_contig</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -10191,12 +10191,12 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>spades</t>
+          <t>coverm</t>
         </is>
       </c>
       <c r="H259">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>bamtools</t>
+          <t>collection_column_join</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10229,12 +10229,12 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>bamtools</t>
+          <t>collection_column_join</t>
         </is>
       </c>
       <c r="H260">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>coverm_contig</t>
+          <t>bamtools</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -10267,12 +10267,12 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>coverm</t>
+          <t>bamtools</t>
         </is>
       </c>
       <c r="H261">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -10305,12 +10305,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Visualisation, Data handling, Variant calling, Sequencing quality control, Read pre-processing, Sequence alignment analysis, Sequence assembly validation, Sequence file editing, Statistical calculation, Genome assembly, Formatting, Primer removal, Sequence composition calculation, Sequence assembly visualisation, Read mapping, Sequence trimming, Sequence contamination filtering, Local alignment</t>
+          <t>Visualisation, Sequence trimming, Genome assembly, Sequence assembly validation, Sequence assembly visualisation, Statistical calculation, Sequencing quality control, Formatting, Sequence composition calculation, Variant calling, Sequence file editing, Sequence contamination filtering, Primer removal, Data handling, Local alignment, Sequence alignment analysis, Read mapping, Read pre-processing</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="H262">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>staramr_search</t>
+          <t>PlasFlow</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -10343,12 +10343,12 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>staramr</t>
+          <t>plasflow</t>
         </is>
       </c>
       <c r="H263">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>minimap2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>minimap2</t>
         </is>
       </c>
       <c r="H264">
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>minimap2</t>
+          <t>gfa_to_fa</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -10419,12 +10419,12 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>minimap2</t>
+          <t>gfa_to_fa</t>
         </is>
       </c>
       <c r="H265">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>racon</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10457,12 +10457,12 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>racon</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H266">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>staramr_search</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>staramr</t>
         </is>
       </c>
       <c r="H268">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>gfa_to_fa</t>
+          <t>racon</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>gfa_to_fa</t>
+          <t>racon</t>
         </is>
       </c>
       <c r="H269">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PlasFlow</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -10609,12 +10609,12 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>plasflow</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="H270">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Scatter plot plotting, Genome assembly, Pairwise sequence alignment, Mapping assembly, Box-Whisker plot plotting, De-novo assembly, Aggregation, Sequence assembly visualisation, Sequence analysis</t>
+          <t>Pairwise sequence alignment, Genome assembly, Sequence assembly visualisation, Aggregation, Mapping assembly, Sequence analysis, Scatter plot plotting, De-novo assembly, Box-Whisker plot plotting</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>dada2_seqCounts</t>
+          <t>dada2_dada</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>dada2_assignTaxonomyAddspecies</t>
+          <t>dada2_filterAndTrim</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>tp_replace_in_column</t>
+          <t>tp_head_tool</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>tp_replace_in_line</t>
+          <t>collection_element_identifiers</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10799,12 +10799,12 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>collection_element_identifiers</t>
         </is>
       </c>
       <c r="H275">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Add_a_column1</t>
+          <t>dada2_mergePairs</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>column_maker</t>
+          <t>dada2</t>
         </is>
       </c>
       <c r="H276">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>phyloseq_from_dada2</t>
+          <t>tp_replace_in_line</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10875,12 +10875,12 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>phyloseq</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H277">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>dada2_makeSequenceTable</t>
+          <t>tp_replace_in_column</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10913,12 +10913,12 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>dada2</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H278">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>dada2_dada</t>
+          <t>Add_a_column1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10951,12 +10951,12 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>dada2</t>
+          <t>column_maker</t>
         </is>
       </c>
       <c r="H279">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>dada2_plotQualityProfile</t>
+          <t>dada2_assignTaxonomyAddspecies</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>tp_head_tool</t>
+          <t>dada2_learnErrors</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -11027,12 +11027,12 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>dada2</t>
         </is>
       </c>
       <c r="H281">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>dada2_mergePairs</t>
+          <t>dada2_makeSequenceTable</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>dada2_learnErrors</t>
+          <t>dada2_removeBimeraDenovo</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>collection_element_identifiers</t>
+          <t>dada2_seqCounts</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -11141,12 +11141,12 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>collection_element_identifiers</t>
+          <t>dada2</t>
         </is>
       </c>
       <c r="H284">
@@ -11159,7 +11159,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>dada2_removeBimeraDenovo</t>
+          <t>phyloseq_from_dada2</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11179,12 +11179,12 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>dada2</t>
+          <t>phyloseq</t>
         </is>
       </c>
       <c r="H285">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>dada2_filterAndTrim</t>
+          <t>dada2_plotQualityProfile</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Visualisation, Analysis, Variant calling, DNA barcoding, Deposition</t>
+          <t>Deposition, Variant calling, Visualisation, DNA barcoding, Analysis</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -11255,12 +11255,12 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H287">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Remove beginning1</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -11293,12 +11293,12 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>remove_beginning</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H288">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -11331,12 +11331,12 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H289">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>tp_replace_in_line</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -11369,12 +11369,12 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H290">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>Remove beginning1</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -11407,12 +11407,12 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>remove_beginning</t>
         </is>
       </c>
       <c r="H291">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>tp_replace_in_line</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -11445,12 +11445,12 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H292">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -11521,12 +11521,12 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H294">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11559,12 +11559,12 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Aggregation, Statistical calculation, Sequencing quality control, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Taxonomic classification, Sequence contamination filtering, Aggregation, Statistical calculation</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H295">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11597,12 +11597,12 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Aggregation, Statistical calculation, Sequencing quality control, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Taxonomic classification, Sequence contamination filtering, Aggregation, Statistical calculation</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H296">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>krakentools_kreport2krona</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11635,12 +11635,12 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Aggregation, Statistical calculation, Sequencing quality control, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Taxonomic classification, Sequence contamination filtering, Aggregation, Statistical calculation</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>krakentools</t>
         </is>
       </c>
       <c r="H297">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>porechop</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11673,12 +11673,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Aggregation, Statistical calculation, Sequencing quality control, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Taxonomic classification, Sequence contamination filtering, Aggregation, Statistical calculation</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>porechop</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H298">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>porechop</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -11711,12 +11711,12 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Aggregation, Statistical calculation, Sequencing quality control, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Taxonomic classification, Sequence contamination filtering, Aggregation, Statistical calculation</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>porechop</t>
         </is>
       </c>
       <c r="H299">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>krakentools_kreport2krona</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -11749,12 +11749,12 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Aggregation, Statistical calculation, Sequencing quality control, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Visualisation, Taxonomic classification, Sequence contamination filtering, Aggregation, Statistical calculation</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>krakentools</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H300">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Statistical calculation, Sequencing quality control, Genome assembly, Validation, Sequence assembly validation</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Genome assembly, Sequence assembly validation, Statistical calculation</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Statistical calculation, Sequencing quality control, Genome assembly, Validation, Sequence assembly validation</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Genome assembly, Sequence assembly validation, Statistical calculation</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>mothur_chimera_vsearch</t>
+          <t>mothur_remove_lineage</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>mothur_heatmap_sim</t>
+          <t>mothur_make_contigs</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>mothur_remove_lineage</t>
+          <t>mothur_rarefaction_single</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -11939,7 +11939,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>mothur_remove_seqs</t>
+          <t>mothur_dist_shared</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>mothur_taxonomy_to_krona</t>
+          <t>mothur_filter_seqs</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -12015,7 +12015,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>mothur_make_biom</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -12053,12 +12053,12 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H308">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>mothur_cluster_split</t>
+          <t>mothur_screen_seqs</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>mothur_sub_sample</t>
+          <t>mothur_summary_single</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>mothur_filter_seqs</t>
+          <t>mothur_heatmap_sim</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>mothur_screen_seqs</t>
+          <t>mothur_classify_otu</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>mothur_rarefaction_single</t>
+          <t>mothur_dist_seqs</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>mothur_dist_shared</t>
+          <t>mothur_align_seqs</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>mothur_classify_otu</t>
+          <t>mothur_seq_error</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>mothur_count_groups</t>
+          <t>mothur_summary_seqs</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>mothur_count_seqs</t>
+          <t>mothur_remove_seqs</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>mothur_dist_seqs</t>
+          <t>mothur_unique_seqs</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>mothur_venn</t>
+          <t>mothur_sub_sample</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>mothur_make_contigs</t>
+          <t>mothur_count_seqs</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>mothur_seq_error</t>
+          <t>mothur_venn</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>mothur_tree_shared</t>
+          <t>mothur_cluster_split</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -12603,7 +12603,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>mothur_taxonomy_to_krona</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12623,12 +12623,12 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H323">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>mothur_cluster</t>
+          <t>mothur_tree_shared</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12661,7 +12661,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -12679,7 +12679,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>mothur_classify_seqs</t>
+          <t>mothur_get_groups</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>mothur_align_seqs</t>
+          <t>mothur_chimera_vsearch</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>mothur_summary_single</t>
+          <t>mothur_make_biom</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>mothur_make_shared</t>
+          <t>mothur_classify_seqs</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>mothur_get_groups</t>
+          <t>newick_display</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12851,12 +12851,12 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>newick_utils</t>
         </is>
       </c>
       <c r="H329">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>mothur_unique_seqs</t>
+          <t>mothur_make_shared</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>newick_display</t>
+          <t>mothur_pre_cluster</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -12927,12 +12927,12 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>newick_utils</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H331">
@@ -12945,7 +12945,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>mothur_pre_cluster</t>
+          <t>XY_Plot_1</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12965,12 +12965,12 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>xy_plot</t>
         </is>
       </c>
       <c r="H332">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>mothur_summary_seqs</t>
+          <t>mothur_count_groups</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -13003,7 +13003,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>mothur_remove_groups</t>
+          <t>mothur_cluster</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -13059,7 +13059,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>XY_Plot_1</t>
+          <t>mothur_remove_groups</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -13079,12 +13079,12 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>xy_plot</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H335">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>mothur_chimera_vsearch</t>
+          <t>mothur_remove_lineage</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>mothur_heatmap_sim</t>
+          <t>mothur_rarefaction_single</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>mothur_remove_lineage</t>
+          <t>mothur_dist_shared</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -13211,7 +13211,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>mothur_remove_seqs</t>
+          <t>mothur_filter_seqs</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -13249,7 +13249,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>mothur_cluster_split</t>
+          <t>mothur_screen_seqs</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>mothur_sub_sample</t>
+          <t>mothur_summary_single</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>mothur_filter_seqs</t>
+          <t>mothur_heatmap_sim</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>mothur_screen_seqs</t>
+          <t>mothur_classify_otu</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>mothur_rarefaction_single</t>
+          <t>mothur_dist_seqs</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>mothur_dist_shared</t>
+          <t>mothur_summary_seqs</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -13459,7 +13459,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>mothur_classify_otu</t>
+          <t>mothur_remove_seqs</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>collapse_dataset</t>
+          <t>mothur_unique_seqs</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -13535,12 +13535,12 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>collapse_collections</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H347">
@@ -13553,7 +13553,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>mothur_count_groups</t>
+          <t>mothur_sub_sample</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -13611,7 +13611,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>mothur_dist_seqs</t>
+          <t>mothur_venn</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -13649,7 +13649,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>mothur_venn</t>
+          <t>mothur_cluster_split</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>mothur_cluster</t>
+          <t>mothur_chimera_vsearch</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>mothur_summary_single</t>
+          <t>newick_display</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -13839,12 +13839,12 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>newick_utils</t>
         </is>
       </c>
       <c r="H355">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>mothur_make_shared</t>
+          <t>collapse_dataset</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -13877,12 +13877,12 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>collapse_collections</t>
         </is>
       </c>
       <c r="H356">
@@ -13895,7 +13895,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>mothur_unique_seqs</t>
+          <t>mothur_make_shared</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -13915,7 +13915,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>newick_display</t>
+          <t>mothur_pre_cluster</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -13953,12 +13953,12 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>newick_utils</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H358">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>mothur_pre_cluster</t>
+          <t>XY_Plot_1</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -13991,12 +13991,12 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>xy_plot</t>
         </is>
       </c>
       <c r="H359">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>mothur_summary_seqs</t>
+          <t>mothur_count_groups</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>mothur_remove_groups</t>
+          <t>mothur_cluster</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -14085,7 +14085,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>XY_Plot_1</t>
+          <t>mothur_remove_groups</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -14105,12 +14105,12 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Sequence clustering, Visualisation, Phylogenetic analysis, Sequencing quality control, Phylogenetic tree reconstruction, Phylogenetic tree generation, Taxonomic classification, Sequence read processing, DNA barcoding, Phylogenetic tree analysis</t>
+          <t>Phylogenetic analysis, Phylogenetic tree analysis, Visualisation, Sequence clustering, DNA barcoding, Sequencing quality control, Taxonomic classification, Sequence read processing, Phylogenetic tree reconstruction, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>xy_plot</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H362">
@@ -14143,7 +14143,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Sequence analysis, Phylogenetic tree analysis</t>
+          <t>Phylogenetic tree analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>tp_easyjoin_tool</t>
+          <t>tp_sed_tool</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>tb_profiler_profile</t>
+          <t>collapse_dataset</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -14219,12 +14219,12 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>tbprofiler</t>
+          <t>collapse_collections</t>
         </is>
       </c>
       <c r="H365">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>tp_cat</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -14257,12 +14257,12 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="H366">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>snp_dists</t>
+          <t>tp_cat</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -14295,12 +14295,12 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>snp_dists</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H367">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>addName</t>
+          <t>tp_easyjoin_tool</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -14333,12 +14333,12 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>add_input_name_as_column</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H368">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>tp_replace_in_line</t>
+          <t>addName</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -14371,12 +14371,12 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>add_input_name_as_column</t>
         </is>
       </c>
       <c r="H369">
@@ -14389,7 +14389,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>trimmomatic</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -14409,12 +14409,12 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>trimmomatic</t>
         </is>
       </c>
       <c r="H370">
@@ -14427,7 +14427,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>collapse_dataset</t>
+          <t>snp_dists</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -14447,12 +14447,12 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>collapse_collections</t>
+          <t>snp_dists</t>
         </is>
       </c>
       <c r="H371">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>trimmomatic</t>
+          <t>snp_sites</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -14485,12 +14485,12 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>trimmomatic</t>
+          <t>snp_sites</t>
         </is>
       </c>
       <c r="H372">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>tp_sed_tool</t>
+          <t>tb_profiler_profile</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -14561,12 +14561,12 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>tbprofiler</t>
         </is>
       </c>
       <c r="H374">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>snp_sites</t>
+          <t>tp_replace_in_line</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -14599,12 +14599,12 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>snp_sites</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H375">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>mosdepth</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -14675,12 +14675,12 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>mosdepth</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H377">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>tp_awk_tool</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -14713,12 +14713,12 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H378">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>tbvcfreport</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -14751,12 +14751,12 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>tbvcfreport</t>
         </is>
       </c>
       <c r="H379">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>qualimap_bamqc</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -14789,12 +14789,12 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>qualimap</t>
         </is>
       </c>
       <c r="H380">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>tb_profiler_profile</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -14827,12 +14827,12 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>tbprofiler</t>
         </is>
       </c>
       <c r="H381">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>jvarkit_wgscoverageplotter</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -14865,12 +14865,12 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>jvarkit</t>
         </is>
       </c>
       <c r="H382">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>tp_sed_tool</t>
+          <t>mosdepth</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -14903,12 +14903,12 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>mosdepth</t>
         </is>
       </c>
       <c r="H383">
@@ -14921,7 +14921,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>EMBOSS: seqret84</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -14941,12 +14941,12 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>emboss_5</t>
         </is>
       </c>
       <c r="H384">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>qualimap_bamqc</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -14979,12 +14979,12 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>qualimap</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H385">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>tbvcfreport</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -15017,12 +15017,12 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>tbvcfreport</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H386">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>jvarkit_wgscoverageplotter</t>
+          <t>tb_variant_filter</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -15055,12 +15055,12 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>jvarkit</t>
+          <t>tb_variant_filter</t>
         </is>
       </c>
       <c r="H387">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>tb_variant_filter</t>
+          <t>tp_sed_tool</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -15093,12 +15093,12 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>tb_variant_filter</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H388">
@@ -15111,7 +15111,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -15131,12 +15131,12 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H389">
@@ -15149,7 +15149,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>tb_profiler_profile</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -15169,12 +15169,12 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>tbprofiler</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="H390">
@@ -15187,7 +15187,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>EMBOSS: seqret84</t>
+          <t>tp_awk_tool</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -15207,12 +15207,12 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>emboss_5</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H391">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>tbl2gff3</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -15283,12 +15283,12 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>tbl2gff3</t>
         </is>
       </c>
       <c r="H393">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -15321,12 +15321,12 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>bowtie2</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H394">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -15359,12 +15359,12 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="H395">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>tbl2gff3</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -15397,12 +15397,12 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Genome annotation, Genome visualisation, Read mapping</t>
+          <t>Read mapping, Genome annotation, Genome visualisation</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>tbl2gff3</t>
+          <t>bowtie2</t>
         </is>
       </c>
       <c r="H396">
@@ -15415,7 +15415,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -15435,12 +15435,12 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H397">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Remove beginning1</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -15473,12 +15473,12 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>remove_beginning</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H398">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -15511,12 +15511,12 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H399">
@@ -15529,7 +15529,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>tp_replace_in_line</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -15549,12 +15549,12 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H400">
@@ -15567,7 +15567,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>Remove beginning1</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -15587,12 +15587,12 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>remove_beginning</t>
         </is>
       </c>
       <c r="H401">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>tp_replace_in_line</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -15625,12 +15625,12 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H402">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -15701,12 +15701,12 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Visualisation, Sequence composition calculation, Statistical calculation, Sequencing quality control, Taxonomic classification, Validation, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Validation, Taxonomic classification, Sequence contamination filtering, Visualisation, Statistical calculation</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H404">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>flashlfq</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -15739,12 +15739,12 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>flashlfq</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H405">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>search_gui</t>
+          <t>tp_replace_in_column</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -15777,12 +15777,12 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>peptideshaker</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H406">
@@ -15795,7 +15795,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>unipept</t>
+          <t>msconvert</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -15815,12 +15815,12 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>unipept</t>
+          <t>msconvert</t>
         </is>
       </c>
       <c r="H407">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Remove beginning1</t>
+          <t>flashlfq</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -15853,12 +15853,12 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>remove_beginning</t>
+          <t>flashlfq</t>
         </is>
       </c>
       <c r="H408">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>tp_replace_in_column</t>
+          <t>Remove beginning1</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -15891,12 +15891,12 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>remove_beginning</t>
         </is>
       </c>
       <c r="H409">
@@ -15909,7 +15909,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>tp_replace_in_line</t>
+          <t>unipept</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -15929,12 +15929,12 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>unipept</t>
         </is>
       </c>
       <c r="H410">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>msconvert</t>
+          <t>search_gui</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -15967,12 +15967,12 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>msconvert</t>
+          <t>peptideshaker</t>
         </is>
       </c>
       <c r="H411">
@@ -16005,7 +16005,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>peptide_shaker</t>
+          <t>tp_replace_in_line</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -16043,12 +16043,12 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>peptideshaker</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H413">
@@ -16061,7 +16061,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>peptide_shaker</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -16081,12 +16081,12 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation, Formatting, Label-free quantification, Filtering</t>
+          <t>Formatting, Visualisation, Label-free quantification, Filtering, Prediction and recognition</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>peptideshaker</t>
         </is>
       </c>
       <c r="H414">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>search_gui</t>
+          <t>unipept</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -16119,12 +16119,12 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation</t>
+          <t>Visualisation, Prediction and recognition</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>peptideshaker</t>
+          <t>unipept</t>
         </is>
       </c>
       <c r="H415">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>unipept</t>
+          <t>search_gui</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -16157,12 +16157,12 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation</t>
+          <t>Visualisation, Prediction and recognition</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>unipept</t>
+          <t>peptideshaker</t>
         </is>
       </c>
       <c r="H416">
@@ -16195,7 +16195,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation</t>
+          <t>Visualisation, Prediction and recognition</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>metaquantome_viz</t>
+          <t>metaquantome_filter</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -16271,7 +16271,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -16309,7 +16309,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>metaquantome_filter</t>
+          <t>metaquantome_viz</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -16347,7 +16347,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>metaquantome_stat</t>
+          <t>metaquantome_sample</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -16403,7 +16403,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>metaquantome_sample</t>
+          <t>metaquantome_stat</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>metaquantome_viz</t>
+          <t>metaquantome_filter</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>metaquantome_filter</t>
+          <t>metaquantome_viz</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -16575,7 +16575,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>metaquantome_stat</t>
+          <t>metaquantome_sample</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -16613,7 +16613,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>metaquantome_sample</t>
+          <t>metaquantome_stat</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Visualisation, Heat map generation, Differential protein expression analysis, Statistical inference, Indexing, Quantification, Filtering, Query and retrieval, Principal component visualisation, Functional clustering</t>
+          <t>Principal component visualisation, Filtering, Functional clustering, Heat map generation, Quantification, Differential protein expression analysis, Statistical inference, Visualisation, Indexing, Query and retrieval</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -16689,12 +16689,12 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Expression analysis, Statistical calculation, Sequencing quality control, Cross-assembly, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Taxonomic classification, Sequence contamination filtering, Expression analysis, Cross-assembly, Statistical calculation</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H430">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Expression analysis, Statistical calculation, Sequencing quality control, Cross-assembly, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Taxonomic classification, Sequence contamination filtering, Expression analysis, Cross-assembly, Statistical calculation</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Expression analysis, Statistical calculation, Sequencing quality control, Cross-assembly, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Taxonomic classification, Sequence contamination filtering, Expression analysis, Cross-assembly, Statistical calculation</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>recentrifuge</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -16803,12 +16803,12 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Expression analysis, Statistical calculation, Sequencing quality control, Cross-assembly, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Taxonomic classification, Sequence contamination filtering, Expression analysis, Cross-assembly, Statistical calculation</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>recentrifuge</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H433">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>recentrifuge</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -16841,12 +16841,12 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Expression analysis, Statistical calculation, Sequencing quality control, Cross-assembly, Taxonomic classification, Sequence contamination filtering</t>
+          <t>Sequencing quality control, Sequence composition calculation, Taxonomic classification, Sequence contamination filtering, Expression analysis, Cross-assembly, Statistical calculation</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>recentrifuge</t>
         </is>
       </c>
       <c r="H434">
@@ -16859,7 +16859,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>picard_MarkDuplicates</t>
+          <t>vcf2tsv</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -16879,12 +16879,12 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>picard</t>
+          <t>vcf2tsv</t>
         </is>
       </c>
       <c r="H435">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>Cut1</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -16917,12 +16917,12 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>cut_columns</t>
         </is>
       </c>
       <c r="H436">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>bamFilter</t>
+          <t>freebayes</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -16955,12 +16955,12 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>bamtools_filter</t>
+          <t>freebayes</t>
         </is>
       </c>
       <c r="H437">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>freebayes</t>
+          <t>bamleftalign</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -17011,7 +17011,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>bamleftalign</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -17031,12 +17031,12 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>freebayes</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H439">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>vcf2tsv</t>
+          <t>bwa_mem</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -17069,12 +17069,12 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>vcf2tsv</t>
+          <t>bwa</t>
         </is>
       </c>
       <c r="H440">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>bwa_mem</t>
+          <t>vcffilter2</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -17107,12 +17107,12 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>bwa</t>
+          <t>vcffilter</t>
         </is>
       </c>
       <c r="H441">
@@ -17125,7 +17125,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>picard_MergeSamFiles</t>
+          <t>picard_MarkDuplicates</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -17145,7 +17145,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -17163,7 +17163,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Cut1</t>
+          <t>bamFilter</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -17183,12 +17183,12 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>cut_columns</t>
+          <t>bamtools_filter</t>
         </is>
       </c>
       <c r="H443">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>vcffilter2</t>
+          <t>picard_MergeSamFiles</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -17221,12 +17221,12 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Data handling, Variant calling, Statistical calculation, Sequencing quality control, Formatting, Sequence alignment analysis, Sequence alignment, Sequence composition calculation, Read mapping, Generation, Genome indexing</t>
+          <t>Statistical calculation, Sequencing quality control, Sequence composition calculation, Formatting, Variant calling, Data handling, Sequence alignment analysis, Generation, Read mapping, Sequence alignment, Genome indexing</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>vcffilter</t>
+          <t>picard</t>
         </is>
       </c>
       <c r="H444">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>mosdepth</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -17259,12 +17259,12 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>mosdepth</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H445">
@@ -17277,7 +17277,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>tp_awk_tool</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -17297,12 +17297,12 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H446">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>tbvcfreport</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -17335,12 +17335,12 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>tbvcfreport</t>
         </is>
       </c>
       <c r="H447">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>qualimap_bamqc</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -17373,12 +17373,12 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>qualimap</t>
         </is>
       </c>
       <c r="H448">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>tb_profiler_profile</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -17411,12 +17411,12 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>tbprofiler</t>
         </is>
       </c>
       <c r="H449">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>jvarkit_wgscoverageplotter</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -17449,12 +17449,12 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>jvarkit</t>
         </is>
       </c>
       <c r="H450">
@@ -17467,7 +17467,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>tp_sed_tool</t>
+          <t>mosdepth</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -17487,12 +17487,12 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>text_processing</t>
+          <t>mosdepth</t>
         </is>
       </c>
       <c r="H451">
@@ -17505,7 +17505,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>EMBOSS: seqret84</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -17525,12 +17525,12 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>emboss_5</t>
         </is>
       </c>
       <c r="H452">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>qualimap_bamqc</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -17563,12 +17563,12 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>qualimap</t>
+          <t>fastqc</t>
         </is>
       </c>
       <c r="H453">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>tbvcfreport</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -17601,12 +17601,12 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>tbvcfreport</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H454">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>jvarkit_wgscoverageplotter</t>
+          <t>tb_variant_filter</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -17639,12 +17639,12 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>jvarkit</t>
+          <t>tb_variant_filter</t>
         </is>
       </c>
       <c r="H455">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>tb_variant_filter</t>
+          <t>tp_sed_tool</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -17677,12 +17677,12 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>tb_variant_filter</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H456">
@@ -17695,7 +17695,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -17715,12 +17715,12 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>fastqc</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H457">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>tb_profiler_profile</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -17753,12 +17753,12 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>tbprofiler</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="H458">
@@ -17771,7 +17771,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>EMBOSS: seqret84</t>
+          <t>tp_awk_tool</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -17791,12 +17791,12 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Statistical calculation, Sequencing quality control, Phylogenetic tree generation, Antimicrobial resistance prediction, Sequence alignment analysis, Sequence alignment, Taxonomic classification, Validation, Phylogenetic tree visualisation, Sequence analysis, Sequence composition calculation, Genome visualisation, Sequence contamination filtering, Local alignment</t>
+          <t>Validation, Phylogenetic tree generation, Statistical calculation, Sequencing quality control, Local alignment, Sequence composition calculation, Phylogenetic tree visualisation, Taxonomic classification, Sequence contamination filtering, Sequence alignment analysis, Variant calling, Antimicrobial resistance prediction, Sequence analysis, Sequence alignment, Genome visualisation, Global alignment</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>emboss_5</t>
+          <t>text_processing</t>
         </is>
       </c>
       <c r="H459">
@@ -17809,7 +17809,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -17829,12 +17829,12 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Genome visualisation, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Genome visualisation, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H460">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -17867,12 +17867,12 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Genome visualisation, Variant calling, Phylogenetic tree visualisation, Phylogenetic tree generation</t>
+          <t>Phylogenetic tree visualisation, Genome visualisation, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="H461">
